--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>TableName: "TLevelMaid" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nextl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,7 +545,7 @@
     <col min="4" max="4" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -550,8 +558,11 @@
       <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -565,12 +576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -583,8 +594,11 @@
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -599,8 +613,11 @@
         <f>INT(C5*6)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -615,8 +632,11 @@
         <f t="shared" ref="D6:D54" si="0">INT(C6*6)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -631,8 +651,11 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -647,8 +670,11 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -663,8 +689,11 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -679,8 +708,11 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -695,8 +727,11 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -711,8 +746,11 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -727,8 +765,11 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -743,8 +784,11 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -759,8 +803,11 @@
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -775,8 +822,11 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -791,8 +841,11 @@
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -807,8 +860,11 @@
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -823,8 +879,11 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -839,8 +898,11 @@
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -855,8 +917,11 @@
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -871,8 +936,11 @@
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -887,8 +955,11 @@
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -903,8 +974,11 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -919,8 +993,11 @@
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -935,8 +1012,11 @@
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -951,8 +1031,11 @@
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -967,8 +1050,11 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -983,8 +1069,11 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -999,8 +1088,11 @@
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1015,8 +1107,11 @@
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1031,8 +1126,11 @@
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1047,8 +1145,11 @@
         <f t="shared" si="0"/>
         <v>1740</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1063,8 +1164,11 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1079,8 +1183,11 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1095,8 +1202,11 @@
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1111,8 +1221,11 @@
         <f t="shared" si="0"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1127,8 +1240,11 @@
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1143,8 +1259,11 @@
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1159,8 +1278,11 @@
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1175,8 +1297,11 @@
         <f t="shared" si="0"/>
         <v>2220</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1191,8 +1316,11 @@
         <f t="shared" si="0"/>
         <v>2280</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1207,8 +1335,11 @@
         <f t="shared" si="0"/>
         <v>2340</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1223,8 +1354,11 @@
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1239,8 +1373,11 @@
         <f t="shared" si="0"/>
         <v>2460</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
@@ -1255,8 +1392,11 @@
         <f t="shared" si="0"/>
         <v>2520</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
@@ -1271,8 +1411,11 @@
         <f t="shared" si="0"/>
         <v>2580</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
@@ -1287,8 +1430,11 @@
         <f t="shared" si="0"/>
         <v>2640</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
@@ -1303,8 +1449,11 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
@@ -1319,8 +1468,11 @@
         <f t="shared" si="0"/>
         <v>2760</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
@@ -1335,8 +1487,11 @@
         <f t="shared" si="0"/>
         <v>2820</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
@@ -1351,8 +1506,11 @@
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
@@ -1367,8 +1525,11 @@
         <f t="shared" si="0"/>
         <v>2940</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1383,35 +1544,38 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -115,6 +115,209 @@
   </si>
   <si>
     <t>下一等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>11-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-24000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-19000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-17000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-16000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-14000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-13000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-4500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-11000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-9000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -535,7 +744,7 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +776,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -602,8 +811,8 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>10</v>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C5">
         <f>INT(F5+10)</f>
@@ -621,8 +830,8 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>20</v>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C6">
         <f>INT(C5+10)</f>
@@ -640,8 +849,8 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C54" si="1">INT(C6+10)</f>
@@ -659,8 +868,8 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>40</v>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -678,8 +887,8 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>50</v>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -697,8 +906,8 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>80</v>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -716,8 +925,8 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>110</v>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -735,8 +944,8 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>140</v>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -754,8 +963,8 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>170</v>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -773,8 +982,8 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14">
-        <v>200</v>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -792,8 +1001,8 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="1">
-        <v>250</v>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -811,8 +1020,8 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>300</v>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -830,8 +1039,8 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>350</v>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -849,8 +1058,8 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="1">
-        <v>400</v>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -868,8 +1077,8 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>450</v>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -887,8 +1096,8 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>500</v>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -906,8 +1115,8 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="1">
-        <v>600</v>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -925,8 +1134,8 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>700</v>
+      <c r="B22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -944,8 +1153,8 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="1">
-        <v>800</v>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -963,8 +1172,8 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>900</v>
+      <c r="B24" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -982,8 +1191,8 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="1">
-        <v>1000</v>
+      <c r="B25" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -1001,8 +1210,8 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>1500</v>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -1020,8 +1229,8 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="1">
-        <v>2000</v>
+      <c r="B27" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -1039,8 +1248,8 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="1">
-        <v>2500</v>
+      <c r="B28" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -1058,8 +1267,8 @@
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29">
-        <v>3000</v>
+      <c r="B29" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -1077,8 +1286,8 @@
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="1">
-        <v>3500</v>
+      <c r="B30" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -1096,8 +1305,8 @@
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="1">
-        <v>4000</v>
+      <c r="B31" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -1115,8 +1324,8 @@
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32">
-        <v>4500</v>
+      <c r="B32" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -1134,8 +1343,8 @@
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="1">
-        <v>5000</v>
+      <c r="B33" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -1153,8 +1362,8 @@
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="1">
-        <v>6000</v>
+      <c r="B34" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -1172,8 +1381,8 @@
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35">
-        <v>7000</v>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -1191,8 +1400,8 @@
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="1">
-        <v>8000</v>
+      <c r="B36" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -1210,8 +1419,8 @@
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37">
-        <v>9000</v>
+      <c r="B37" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -1229,8 +1438,8 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="1">
-        <v>10000</v>
+      <c r="B38" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -1248,8 +1457,8 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39">
-        <v>11000</v>
+      <c r="B39" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -1267,8 +1476,8 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="1">
-        <v>12000</v>
+      <c r="B40" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -1286,8 +1495,8 @@
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41">
-        <v>13000</v>
+      <c r="B41" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -1305,8 +1514,8 @@
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="1">
-        <v>14000</v>
+      <c r="B42" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -1324,8 +1533,8 @@
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43">
-        <v>15000</v>
+      <c r="B43" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -1343,8 +1552,8 @@
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="1">
-        <v>16000</v>
+      <c r="B44" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -1362,8 +1571,8 @@
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45">
-        <v>17000</v>
+      <c r="B45" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -1381,8 +1590,8 @@
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="1">
-        <v>18000</v>
+      <c r="B46" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -1400,8 +1609,8 @@
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="B47">
-        <v>19000</v>
+      <c r="B47" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -1419,8 +1628,8 @@
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="1">
-        <v>20000</v>
+      <c r="B48" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -1438,8 +1647,8 @@
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="B49">
-        <v>21000</v>
+      <c r="B49" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -1457,8 +1666,8 @@
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="B50" s="1">
-        <v>22000</v>
+      <c r="B50" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -1476,8 +1685,8 @@
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="B51">
-        <v>23000</v>
+      <c r="B51" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -1495,8 +1704,8 @@
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="B52" s="1">
-        <v>24000</v>
+      <c r="B52" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -1514,8 +1723,8 @@
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="B53">
-        <v>25000</v>
+      <c r="B53" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -1533,8 +1742,8 @@
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="B54" s="1">
-        <v>0</v>
+      <c r="B54" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -121,203 +121,203 @@
     <t>string</t>
   </si>
   <si>
-    <t>11-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-24000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-23000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-22000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-21000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-19000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-18000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-17000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-16000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-14000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-13000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-4500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-11000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-9000</t>
+    <t>140001-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-24000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-19000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-17000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-16000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-14000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-13000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-11000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-4500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-140</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -1002,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -1040,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -1059,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -1078,7 +1078,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -1097,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -1116,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -1154,7 +1154,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -1173,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -1192,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -1211,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -1230,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -1249,7 +1249,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -1268,7 +1268,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -1287,7 +1287,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -1306,7 +1306,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -1325,7 +1325,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -1344,7 +1344,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -1363,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -1382,7 +1382,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -1401,7 +1401,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -1420,7 +1420,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -1439,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -1458,7 +1458,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -1477,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -1496,7 +1496,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -1515,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -1534,7 +1534,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -1553,7 +1553,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -1572,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -1591,7 +1591,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -1610,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -1629,7 +1629,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -1648,7 +1648,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -1667,7 +1667,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -1686,7 +1686,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -1705,7 +1705,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -1724,7 +1724,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -1743,7 +1743,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -82,22 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每分钟收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">道具 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +302,22 @@
   </si>
   <si>
     <t>140001-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周期产生金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周期生产时间（单位秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,15 +743,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,16 +759,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -776,7 +776,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -795,16 +795,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -812,15 +812,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <f>INT(F5+10)</f>
-        <v>10</v>
+        <f>INT(F5+6000)</f>
+        <v>6000</v>
       </c>
       <c r="D5">
-        <f>INT(C5*6)</f>
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -831,15 +830,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <f>INT(C5+10)</f>
-        <v>20</v>
+        <f>INT(C5+600)</f>
+        <v>6600</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D54" si="0">INT(C6*6)</f>
-        <v>120</v>
+        <v>3600</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -850,15 +848,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C54" si="1">INT(C6+10)</f>
-        <v>30</v>
+        <f>INT(C6+600)</f>
+        <v>7200</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <v>3600</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -869,15 +866,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>INT(C7+600)</f>
+        <v>7800</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <v>3600</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -888,15 +884,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>INT(C8+600)</f>
+        <v>8400</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -907,15 +902,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>INT(C9+600)</f>
+        <v>9000</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -926,15 +920,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>INT(C10+600)</f>
+        <v>9600</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <v>3600</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -945,15 +938,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" ref="C12:C54" si="0">INT(C11+600)</f>
+        <v>10200</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <v>3600</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -964,15 +956,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>10800</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>540</v>
+        <v>3600</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -983,15 +974,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>11400</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -1002,15 +992,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>660</v>
+        <v>3600</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -1021,15 +1010,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>12600</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>720</v>
+        <v>3600</v>
       </c>
       <c r="E16">
         <v>13</v>
@@ -1040,15 +1028,14 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>13200</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>780</v>
+        <v>3600</v>
       </c>
       <c r="E17">
         <v>14</v>
@@ -1059,15 +1046,14 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>13800</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>840</v>
+        <v>3600</v>
       </c>
       <c r="E18">
         <v>15</v>
@@ -1078,15 +1064,14 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>14400</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>3600</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -1097,15 +1082,14 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>960</v>
+        <v>3600</v>
       </c>
       <c r="E20">
         <v>17</v>
@@ -1116,15 +1100,14 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>170</v>
+        <f t="shared" si="0"/>
+        <v>15600</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1020</v>
+        <v>3600</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -1135,15 +1118,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>16200</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>3600</v>
       </c>
       <c r="E22">
         <v>19</v>
@@ -1154,15 +1136,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>16800</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>3600</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1173,15 +1154,14 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>17400</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="E24">
         <v>21</v>
@@ -1192,15 +1172,14 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>210</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>3600</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -1211,15 +1190,14 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>18600</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>3600</v>
       </c>
       <c r="E26">
         <v>23</v>
@@ -1230,15 +1208,14 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
-        <v>230</v>
+        <f t="shared" si="0"/>
+        <v>19200</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>3600</v>
       </c>
       <c r="E27">
         <v>24</v>
@@ -1249,15 +1226,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" si="0"/>
+        <v>19800</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>3600</v>
       </c>
       <c r="E28">
         <v>25</v>
@@ -1268,15 +1244,14 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>20400</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="E29">
         <v>26</v>
@@ -1287,15 +1262,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>260</v>
+        <f t="shared" si="0"/>
+        <v>21000</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1560</v>
+        <v>3600</v>
       </c>
       <c r="E30">
         <v>27</v>
@@ -1306,15 +1280,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>21600</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1620</v>
+        <v>3600</v>
       </c>
       <c r="E31">
         <v>28</v>
@@ -1325,15 +1298,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>22200</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1680</v>
+        <v>3600</v>
       </c>
       <c r="E32">
         <v>29</v>
@@ -1344,15 +1316,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>22800</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1740</v>
+        <v>3600</v>
       </c>
       <c r="E33">
         <v>30</v>
@@ -1363,15 +1334,14 @@
         <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>23400</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E34">
         <v>31</v>
@@ -1382,15 +1352,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
-        <v>310</v>
+        <f t="shared" si="0"/>
+        <v>24000</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>3600</v>
       </c>
       <c r="E35">
         <v>32</v>
@@ -1401,15 +1370,14 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
-        <v>320</v>
+        <f t="shared" si="0"/>
+        <v>24600</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>3600</v>
       </c>
       <c r="E36">
         <v>33</v>
@@ -1420,15 +1388,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
-        <v>330</v>
+        <f t="shared" si="0"/>
+        <v>25200</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1980</v>
+        <v>3600</v>
       </c>
       <c r="E37">
         <v>34</v>
@@ -1439,15 +1406,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
-        <v>340</v>
+        <f t="shared" si="0"/>
+        <v>25800</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>2040</v>
+        <v>3600</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -1458,15 +1424,14 @@
         <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
-        <v>350</v>
+        <f t="shared" si="0"/>
+        <v>26400</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>3600</v>
       </c>
       <c r="E39">
         <v>36</v>
@@ -1477,15 +1442,14 @@
         <v>36</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
-        <v>360</v>
+        <f t="shared" si="0"/>
+        <v>27000</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>2160</v>
+        <v>3600</v>
       </c>
       <c r="E40">
         <v>37</v>
@@ -1496,15 +1460,14 @@
         <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
-        <v>370</v>
+        <f t="shared" si="0"/>
+        <v>27600</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>2220</v>
+        <v>3600</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -1515,15 +1478,14 @@
         <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
-        <v>380</v>
+        <f t="shared" si="0"/>
+        <v>28200</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>2280</v>
+        <v>3600</v>
       </c>
       <c r="E42">
         <v>39</v>
@@ -1534,15 +1496,14 @@
         <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
-        <v>390</v>
+        <f t="shared" si="0"/>
+        <v>28800</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>2340</v>
+        <v>3600</v>
       </c>
       <c r="E43">
         <v>40</v>
@@ -1553,15 +1514,14 @@
         <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>29400</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="E44">
         <v>41</v>
@@ -1572,15 +1532,14 @@
         <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
-        <v>410</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>2460</v>
+        <v>3600</v>
       </c>
       <c r="E45">
         <v>42</v>
@@ -1591,15 +1550,14 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>30600</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>2520</v>
+        <v>3600</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -1610,15 +1568,14 @@
         <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
-        <v>430</v>
+        <f t="shared" si="0"/>
+        <v>31200</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>2580</v>
+        <v>3600</v>
       </c>
       <c r="E47">
         <v>44</v>
@@ -1629,15 +1586,14 @@
         <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
-        <v>440</v>
+        <f t="shared" si="0"/>
+        <v>31800</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>2640</v>
+        <v>3600</v>
       </c>
       <c r="E48">
         <v>45</v>
@@ -1648,15 +1604,14 @@
         <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
-        <v>450</v>
+        <f t="shared" si="0"/>
+        <v>32400</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="E49">
         <v>46</v>
@@ -1667,15 +1622,14 @@
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
-        <v>460</v>
+        <f t="shared" si="0"/>
+        <v>33000</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>2760</v>
+        <v>3600</v>
       </c>
       <c r="E50">
         <v>47</v>
@@ -1686,15 +1640,14 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
-        <v>470</v>
+        <f t="shared" si="0"/>
+        <v>33600</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>2820</v>
+        <v>3600</v>
       </c>
       <c r="E51">
         <v>48</v>
@@ -1705,15 +1658,14 @@
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>34200</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>2880</v>
+        <v>3600</v>
       </c>
       <c r="E52">
         <v>49</v>
@@ -1724,15 +1676,14 @@
         <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
-        <v>490</v>
+        <f t="shared" si="0"/>
+        <v>34800</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>2940</v>
+        <v>3600</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -1743,15 +1694,14 @@
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>35400</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2654,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="165" windowWidth="27915" windowHeight="12315" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TLevelMaid" sheetId="1" r:id="rId1"/>
@@ -15,309 +15,323 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TLevelMaid" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-24000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-19000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-17000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-16000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-14000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-13000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-11000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-4500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周期产生金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周期生产时间（单位秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">道具 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "TLevelMaid" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nextl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>140001-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-24000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-23000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-22000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-21000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-19000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-18000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-17000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-16000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-14000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-13000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-11000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-4500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单周期产生金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单周期生产时间（单位秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProduceGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProduceTime</t>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: "-"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -346,6 +360,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -379,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +420,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,67 +767,75 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="50" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3984375" customWidth="1"/>
     <col min="4" max="4" width="22.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -812,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <f>INT(F5+6000)</f>
@@ -830,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <f>INT(C5+600)</f>
+        <f t="shared" ref="C6:C11" si="0">INT(C5+600)</f>
         <v>6600</v>
       </c>
       <c r="D6">
@@ -848,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <f>INT(C6+600)</f>
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
       <c r="D7">
@@ -866,10 +897,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <f>INT(C7+600)</f>
+        <f t="shared" si="0"/>
         <v>7800</v>
       </c>
       <c r="D8">
@@ -884,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <f>INT(C8+600)</f>
+        <f t="shared" si="0"/>
         <v>8400</v>
       </c>
       <c r="D9">
@@ -902,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <f>INT(C9+600)</f>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="D10">
@@ -920,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <f>INT(C10+600)</f>
+        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="D11">
@@ -938,10 +969,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C54" si="0">INT(C11+600)</f>
+        <f t="shared" ref="C12:C54" si="1">INT(C11+600)</f>
         <v>10200</v>
       </c>
       <c r="D12">
@@ -956,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10800</v>
       </c>
       <c r="D13">
@@ -974,10 +1005,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11400</v>
       </c>
       <c r="D14">
@@ -992,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="D15">
@@ -1010,10 +1041,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12600</v>
       </c>
       <c r="D16">
@@ -1028,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13200</v>
       </c>
       <c r="D17">
@@ -1046,10 +1077,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13800</v>
       </c>
       <c r="D18">
@@ -1064,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14400</v>
       </c>
       <c r="D19">
@@ -1082,10 +1113,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="D20">
@@ -1100,10 +1131,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15600</v>
       </c>
       <c r="D21">
@@ -1118,10 +1149,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16200</v>
       </c>
       <c r="D22">
@@ -1136,10 +1167,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16800</v>
       </c>
       <c r="D23">
@@ -1154,10 +1185,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17400</v>
       </c>
       <c r="D24">
@@ -1172,10 +1203,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="D25">
@@ -1190,10 +1221,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18600</v>
       </c>
       <c r="D26">
@@ -1208,10 +1239,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19200</v>
       </c>
       <c r="D27">
@@ -1226,10 +1257,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19800</v>
       </c>
       <c r="D28">
@@ -1244,10 +1275,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20400</v>
       </c>
       <c r="D29">
@@ -1262,10 +1293,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21000</v>
       </c>
       <c r="D30">
@@ -1280,10 +1311,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
       <c r="D31">
@@ -1298,10 +1329,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22200</v>
       </c>
       <c r="D32">
@@ -1316,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22800</v>
       </c>
       <c r="D33">
@@ -1334,10 +1365,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23400</v>
       </c>
       <c r="D34">
@@ -1352,10 +1383,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
       <c r="D35">
@@ -1370,10 +1401,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24600</v>
       </c>
       <c r="D36">
@@ -1388,10 +1419,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25200</v>
       </c>
       <c r="D37">
@@ -1406,10 +1437,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25800</v>
       </c>
       <c r="D38">
@@ -1424,10 +1455,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26400</v>
       </c>
       <c r="D39">
@@ -1442,10 +1473,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27000</v>
       </c>
       <c r="D40">
@@ -1460,10 +1491,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27600</v>
       </c>
       <c r="D41">
@@ -1478,10 +1509,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28200</v>
       </c>
       <c r="D42">
@@ -1496,10 +1527,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28800</v>
       </c>
       <c r="D43">
@@ -1514,10 +1545,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29400</v>
       </c>
       <c r="D44">
@@ -1532,10 +1563,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="D45">
@@ -1550,10 +1581,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30600</v>
       </c>
       <c r="D46">
@@ -1568,10 +1599,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31200</v>
       </c>
       <c r="D47">
@@ -1586,10 +1617,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31800</v>
       </c>
       <c r="D48">
@@ -1604,10 +1635,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32400</v>
       </c>
       <c r="D49">
@@ -1622,10 +1653,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33000</v>
       </c>
       <c r="D50">
@@ -1640,10 +1671,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33600</v>
       </c>
       <c r="D51">
@@ -1658,10 +1689,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34200</v>
       </c>
       <c r="D52">
@@ -1676,10 +1707,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34800</v>
       </c>
       <c r="D53">
@@ -1694,10 +1725,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35400</v>
       </c>
       <c r="D54">
@@ -2604,59 +2635,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -87,206 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>140001-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-24000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-23000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-22000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-21000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-19000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-18000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-17000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-16000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-14000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-13000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-11000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-4500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001-140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单周期产生金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,19 +119,671 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: "-"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级需要道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade</t>
+    <t>UpgradeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要道具数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要道具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,11 +870,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,1848 +1219,2125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="2" max="3" width="22.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <f>INT(F5+6000)</f>
+      <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <f>INT(G5+6000)</f>
         <v>6000</v>
       </c>
-      <c r="D5">
-        <v>3600</v>
-      </c>
       <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C11" si="0">INT(C5+600)</f>
+      <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D11" si="0">INT(D5+600)</f>
         <v>6600</v>
       </c>
-      <c r="D6">
-        <v>3600</v>
-      </c>
       <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="D7">
-        <v>3600</v>
-      </c>
       <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="D8">
-        <v>3600</v>
-      </c>
       <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="D9">
-        <v>3600</v>
-      </c>
       <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="D10">
-        <v>3600</v>
-      </c>
       <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
-      <c r="D11">
-        <v>3600</v>
-      </c>
       <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C54" si="1">INT(C11+600)</f>
+      <c r="B12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D54" si="1">INT(D11+600)</f>
         <v>10200</v>
       </c>
-      <c r="D12">
-        <v>3600</v>
-      </c>
       <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>10800</v>
       </c>
-      <c r="D13">
-        <v>3600</v>
-      </c>
       <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>11400</v>
       </c>
-      <c r="D14">
-        <v>3600</v>
-      </c>
       <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="D15">
-        <v>3600</v>
-      </c>
       <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>12600</v>
       </c>
-      <c r="D16">
-        <v>3600</v>
-      </c>
       <c r="E16">
+        <v>3600</v>
+      </c>
+      <c r="F16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>13200</v>
       </c>
-      <c r="D17">
-        <v>3600</v>
-      </c>
       <c r="E17">
+        <v>3600</v>
+      </c>
+      <c r="F17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>13800</v>
       </c>
-      <c r="D18">
-        <v>3600</v>
-      </c>
       <c r="E18">
+        <v>3600</v>
+      </c>
+      <c r="F18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="D19">
-        <v>3600</v>
-      </c>
       <c r="E19">
+        <v>3600</v>
+      </c>
+      <c r="F19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="D20">
-        <v>3600</v>
-      </c>
       <c r="E20">
+        <v>3600</v>
+      </c>
+      <c r="F20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
-      <c r="D21">
-        <v>3600</v>
-      </c>
       <c r="E21">
+        <v>3600</v>
+      </c>
+      <c r="F21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="1"/>
         <v>16200</v>
       </c>
-      <c r="D22">
-        <v>3600</v>
-      </c>
       <c r="E22">
+        <v>3600</v>
+      </c>
+      <c r="F22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="1"/>
         <v>16800</v>
       </c>
-      <c r="D23">
-        <v>3600</v>
-      </c>
       <c r="E23">
+        <v>3600</v>
+      </c>
+      <c r="F23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="1"/>
         <v>17400</v>
       </c>
-      <c r="D24">
-        <v>3600</v>
-      </c>
       <c r="E24">
+        <v>3600</v>
+      </c>
+      <c r="F24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="D25">
-        <v>3600</v>
-      </c>
       <c r="E25">
+        <v>3600</v>
+      </c>
+      <c r="F25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>18600</v>
       </c>
-      <c r="D26">
-        <v>3600</v>
-      </c>
       <c r="E26">
+        <v>3600</v>
+      </c>
+      <c r="F26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="1"/>
         <v>19200</v>
       </c>
-      <c r="D27">
-        <v>3600</v>
-      </c>
       <c r="E27">
+        <v>3600</v>
+      </c>
+      <c r="F27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="D28">
-        <v>3600</v>
-      </c>
       <c r="E28">
+        <v>3600</v>
+      </c>
+      <c r="F28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="1"/>
         <v>20400</v>
       </c>
-      <c r="D29">
-        <v>3600</v>
-      </c>
       <c r="E29">
+        <v>3600</v>
+      </c>
+      <c r="F29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="1"/>
         <v>21000</v>
       </c>
-      <c r="D30">
-        <v>3600</v>
-      </c>
       <c r="E30">
+        <v>3600</v>
+      </c>
+      <c r="F30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="D31">
-        <v>3600</v>
-      </c>
       <c r="E31">
+        <v>3600</v>
+      </c>
+      <c r="F31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>22200</v>
       </c>
-      <c r="D32">
-        <v>3600</v>
-      </c>
       <c r="E32">
+        <v>3600</v>
+      </c>
+      <c r="F32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="1"/>
         <v>22800</v>
       </c>
-      <c r="D33">
-        <v>3600</v>
-      </c>
       <c r="E33">
+        <v>3600</v>
+      </c>
+      <c r="F33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="1"/>
         <v>23400</v>
       </c>
-      <c r="D34">
-        <v>3600</v>
-      </c>
       <c r="E34">
+        <v>3600</v>
+      </c>
+      <c r="F34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="D35">
-        <v>3600</v>
-      </c>
       <c r="E35">
+        <v>3600</v>
+      </c>
+      <c r="F35">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="1"/>
         <v>24600</v>
       </c>
-      <c r="D36">
-        <v>3600</v>
-      </c>
       <c r="E36">
+        <v>3600</v>
+      </c>
+      <c r="F36">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="D37">
-        <v>3600</v>
-      </c>
       <c r="E37">
+        <v>3600</v>
+      </c>
+      <c r="F37">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="1"/>
         <v>25800</v>
       </c>
-      <c r="D38">
-        <v>3600</v>
-      </c>
       <c r="E38">
+        <v>3600</v>
+      </c>
+      <c r="F38">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="D39">
-        <v>3600</v>
-      </c>
       <c r="E39">
+        <v>3600</v>
+      </c>
+      <c r="F39">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="D40">
-        <v>3600</v>
-      </c>
       <c r="E40">
+        <v>3600</v>
+      </c>
+      <c r="F40">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="1"/>
         <v>27600</v>
       </c>
-      <c r="D41">
-        <v>3600</v>
-      </c>
       <c r="E41">
+        <v>3600</v>
+      </c>
+      <c r="F41">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="1"/>
         <v>28200</v>
       </c>
-      <c r="D42">
-        <v>3600</v>
-      </c>
       <c r="E42">
+        <v>3600</v>
+      </c>
+      <c r="F42">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>28800</v>
+      </c>
+      <c r="E43">
+        <v>3600</v>
+      </c>
+      <c r="F43">
         <v>40</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>28800</v>
-      </c>
-      <c r="D43">
-        <v>3600</v>
-      </c>
-      <c r="E43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="1"/>
         <v>29400</v>
       </c>
-      <c r="D44">
-        <v>3600</v>
-      </c>
       <c r="E44">
+        <v>3600</v>
+      </c>
+      <c r="F44">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="D45">
-        <v>3600</v>
-      </c>
       <c r="E45">
+        <v>3600</v>
+      </c>
+      <c r="F45">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="1"/>
         <v>30600</v>
       </c>
-      <c r="D46">
-        <v>3600</v>
-      </c>
       <c r="E46">
+        <v>3600</v>
+      </c>
+      <c r="F46">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="1"/>
         <v>31200</v>
       </c>
-      <c r="D47">
-        <v>3600</v>
-      </c>
       <c r="E47">
+        <v>3600</v>
+      </c>
+      <c r="F47">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="1"/>
         <v>31800</v>
       </c>
-      <c r="D48">
-        <v>3600</v>
-      </c>
       <c r="E48">
+        <v>3600</v>
+      </c>
+      <c r="F48">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="1"/>
         <v>32400</v>
       </c>
-      <c r="D49">
-        <v>3600</v>
-      </c>
       <c r="E49">
+        <v>3600</v>
+      </c>
+      <c r="F49">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="1"/>
         <v>33000</v>
       </c>
-      <c r="D50">
-        <v>3600</v>
-      </c>
       <c r="E50">
+        <v>3600</v>
+      </c>
+      <c r="F50">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="1"/>
         <v>33600</v>
       </c>
-      <c r="D51">
-        <v>3600</v>
-      </c>
       <c r="E51">
+        <v>3600</v>
+      </c>
+      <c r="F51">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="1"/>
         <v>34200</v>
       </c>
-      <c r="D52">
-        <v>3600</v>
-      </c>
       <c r="E52">
+        <v>3600</v>
+      </c>
+      <c r="F52">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="1"/>
         <v>34800</v>
       </c>
-      <c r="D53">
-        <v>3600</v>
-      </c>
       <c r="E53">
+        <v>3600</v>
+      </c>
+      <c r="F53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="1"/>
         <v>35400</v>
       </c>
-      <c r="D54">
-        <v>3600</v>
-      </c>
       <c r="E54">
+        <v>3600</v>
+      </c>
+      <c r="F54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
+      <c r="C304"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -784,6 +784,87 @@
   </si>
   <si>
     <t>140001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出额外道具(道具id-万分比权重;道具id-万分比权重)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>120001-1000-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120002-500-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120003-300-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120004-1500-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120005-1000-1</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1231,10 +1312,12 @@
     <col min="2" max="3" width="22.296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3984375" customWidth="1"/>
     <col min="5" max="5" width="22.69921875" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1251,10 +1334,13 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1270,18 +1356,26 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1298,10 +1392,13 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1312,17 +1409,20 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <f>INT(G5+6000)</f>
+        <f>INT(H5+6000)</f>
         <v>6000</v>
       </c>
       <c r="E5">
         <v>3600</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1339,11 +1439,14 @@
       <c r="E6">
         <v>3600</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1360,11 +1463,14 @@
       <c r="E7">
         <v>3600</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1381,11 +1487,14 @@
       <c r="E8">
         <v>3600</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1402,11 +1511,14 @@
       <c r="E9">
         <v>3600</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1423,11 +1535,14 @@
       <c r="E10">
         <v>3600</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1444,11 +1559,14 @@
       <c r="E11">
         <v>3600</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1465,11 +1583,14 @@
       <c r="E12">
         <v>3600</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1486,11 +1607,14 @@
       <c r="E13">
         <v>3600</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1507,11 +1631,14 @@
       <c r="E14">
         <v>3600</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1528,11 +1655,14 @@
       <c r="E15">
         <v>3600</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1549,11 +1679,14 @@
       <c r="E16">
         <v>3600</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1570,11 +1703,14 @@
       <c r="E17">
         <v>3600</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1591,11 +1727,14 @@
       <c r="E18">
         <v>3600</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1612,11 +1751,14 @@
       <c r="E19">
         <v>3600</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1633,11 +1775,14 @@
       <c r="E20">
         <v>3600</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1654,11 +1799,14 @@
       <c r="E21">
         <v>3600</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1675,11 +1823,14 @@
       <c r="E22">
         <v>3600</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1696,11 +1847,14 @@
       <c r="E23">
         <v>3600</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1717,11 +1871,14 @@
       <c r="E24">
         <v>3600</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1738,11 +1895,14 @@
       <c r="E25">
         <v>3600</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1759,11 +1919,14 @@
       <c r="E26">
         <v>3600</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1780,11 +1943,14 @@
       <c r="E27">
         <v>3600</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1801,11 +1967,14 @@
       <c r="E28">
         <v>3600</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1822,11 +1991,14 @@
       <c r="E29">
         <v>3600</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1843,11 +2015,14 @@
       <c r="E30">
         <v>3600</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1864,11 +2039,14 @@
       <c r="E31">
         <v>3600</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1885,11 +2063,14 @@
       <c r="E32">
         <v>3600</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1906,11 +2087,14 @@
       <c r="E33">
         <v>3600</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1927,11 +2111,14 @@
       <c r="E34">
         <v>3600</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1948,11 +2135,14 @@
       <c r="E35">
         <v>3600</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1969,11 +2159,14 @@
       <c r="E36">
         <v>3600</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1990,11 +2183,14 @@
       <c r="E37">
         <v>3600</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
@@ -2011,11 +2207,14 @@
       <c r="E38">
         <v>3600</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -2032,11 +2231,14 @@
       <c r="E39">
         <v>3600</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
@@ -2053,11 +2255,14 @@
       <c r="E40">
         <v>3600</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
@@ -2074,11 +2279,14 @@
       <c r="E41">
         <v>3600</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
@@ -2095,11 +2303,14 @@
       <c r="E42">
         <v>3600</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
@@ -2116,11 +2327,14 @@
       <c r="E43">
         <v>3600</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
@@ -2137,11 +2351,14 @@
       <c r="E44">
         <v>3600</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
@@ -2158,11 +2375,14 @@
       <c r="E45">
         <v>3600</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
@@ -2179,11 +2399,14 @@
       <c r="E46">
         <v>3600</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
@@ -2200,11 +2423,14 @@
       <c r="E47">
         <v>3600</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
@@ -2221,11 +2447,14 @@
       <c r="E48">
         <v>3600</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
@@ -2242,11 +2471,14 @@
       <c r="E49">
         <v>3600</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
@@ -2263,11 +2495,14 @@
       <c r="E50">
         <v>3600</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
@@ -2284,11 +2519,14 @@
       <c r="E51">
         <v>3600</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
@@ -2305,11 +2543,14 @@
       <c r="E52">
         <v>3600</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
@@ -2326,11 +2567,14 @@
       <c r="E53">
         <v>3600</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
@@ -2347,38 +2591,41 @@
       <c r="E54">
         <v>3600</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1312,7 +1312,7 @@
     <col min="2" max="3" width="22.296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3984375" customWidth="1"/>
     <col min="5" max="5" width="22.69921875" customWidth="1"/>
-    <col min="6" max="6" width="42.19921875" customWidth="1"/>
+    <col min="6" max="6" width="55.69921875" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
@@ -1413,7 +1413,7 @@
         <v>6000</v>
       </c>
       <c r="E5">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>89</v>
@@ -1437,7 +1437,7 @@
         <v>6600</v>
       </c>
       <c r="E6">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>89</v>
@@ -1461,7 +1461,7 @@
         <v>7200</v>
       </c>
       <c r="E7">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>89</v>
@@ -1485,7 +1485,7 @@
         <v>7800</v>
       </c>
       <c r="E8">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>89</v>
@@ -1509,7 +1509,7 @@
         <v>8400</v>
       </c>
       <c r="E9">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>89</v>
@@ -1533,7 +1533,7 @@
         <v>9000</v>
       </c>
       <c r="E10">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>89</v>
@@ -1557,7 +1557,7 @@
         <v>9600</v>
       </c>
       <c r="E11">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
@@ -1581,7 +1581,7 @@
         <v>10200</v>
       </c>
       <c r="E12">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>89</v>
@@ -1605,7 +1605,7 @@
         <v>10800</v>
       </c>
       <c r="E13">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>89</v>
@@ -1629,7 +1629,7 @@
         <v>11400</v>
       </c>
       <c r="E14">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>89</v>
@@ -1653,7 +1653,7 @@
         <v>12000</v>
       </c>
       <c r="E15">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>89</v>
@@ -1677,7 +1677,7 @@
         <v>12600</v>
       </c>
       <c r="E16">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>89</v>
@@ -1701,7 +1701,7 @@
         <v>13200</v>
       </c>
       <c r="E17">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>89</v>
@@ -1725,7 +1725,7 @@
         <v>13800</v>
       </c>
       <c r="E18">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>89</v>
@@ -1749,7 +1749,7 @@
         <v>14400</v>
       </c>
       <c r="E19">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>89</v>
@@ -1773,7 +1773,7 @@
         <v>15000</v>
       </c>
       <c r="E20">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>89</v>
@@ -1797,7 +1797,7 @@
         <v>15600</v>
       </c>
       <c r="E21">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>89</v>
@@ -1821,7 +1821,7 @@
         <v>16200</v>
       </c>
       <c r="E22">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>89</v>
@@ -1845,7 +1845,7 @@
         <v>16800</v>
       </c>
       <c r="E23">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>89</v>
@@ -1869,7 +1869,7 @@
         <v>17400</v>
       </c>
       <c r="E24">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>89</v>
@@ -1893,7 +1893,7 @@
         <v>18000</v>
       </c>
       <c r="E25">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>89</v>
@@ -1917,7 +1917,7 @@
         <v>18600</v>
       </c>
       <c r="E26">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>89</v>
@@ -1941,7 +1941,7 @@
         <v>19200</v>
       </c>
       <c r="E27">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>89</v>
@@ -1965,7 +1965,7 @@
         <v>19800</v>
       </c>
       <c r="E28">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>89</v>
@@ -1989,7 +1989,7 @@
         <v>20400</v>
       </c>
       <c r="E29">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>89</v>
@@ -2013,7 +2013,7 @@
         <v>21000</v>
       </c>
       <c r="E30">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>89</v>
@@ -2037,7 +2037,7 @@
         <v>21600</v>
       </c>
       <c r="E31">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>89</v>
@@ -2061,7 +2061,7 @@
         <v>22200</v>
       </c>
       <c r="E32">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>89</v>
@@ -2085,7 +2085,7 @@
         <v>22800</v>
       </c>
       <c r="E33">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>89</v>
@@ -2109,7 +2109,7 @@
         <v>23400</v>
       </c>
       <c r="E34">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>89</v>
@@ -2133,7 +2133,7 @@
         <v>24000</v>
       </c>
       <c r="E35">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>89</v>
@@ -2157,7 +2157,7 @@
         <v>24600</v>
       </c>
       <c r="E36">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>89</v>
@@ -2181,7 +2181,7 @@
         <v>25200</v>
       </c>
       <c r="E37">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>89</v>
@@ -2205,7 +2205,7 @@
         <v>25800</v>
       </c>
       <c r="E38">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>89</v>
@@ -2229,7 +2229,7 @@
         <v>26400</v>
       </c>
       <c r="E39">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>89</v>
@@ -2253,7 +2253,7 @@
         <v>27000</v>
       </c>
       <c r="E40">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>89</v>
@@ -2277,7 +2277,7 @@
         <v>27600</v>
       </c>
       <c r="E41">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>89</v>
@@ -2301,7 +2301,7 @@
         <v>28200</v>
       </c>
       <c r="E42">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>89</v>
@@ -2325,7 +2325,7 @@
         <v>28800</v>
       </c>
       <c r="E43">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>89</v>
@@ -2349,7 +2349,7 @@
         <v>29400</v>
       </c>
       <c r="E44">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>89</v>
@@ -2373,7 +2373,7 @@
         <v>30000</v>
       </c>
       <c r="E45">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>89</v>
@@ -2397,7 +2397,7 @@
         <v>30600</v>
       </c>
       <c r="E46">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>89</v>
@@ -2421,7 +2421,7 @@
         <v>31200</v>
       </c>
       <c r="E47">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>89</v>
@@ -2445,7 +2445,7 @@
         <v>31800</v>
       </c>
       <c r="E48">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>89</v>
@@ -2469,7 +2469,7 @@
         <v>32400</v>
       </c>
       <c r="E49">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>89</v>
@@ -2493,7 +2493,7 @@
         <v>33000</v>
       </c>
       <c r="E50">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>89</v>
@@ -2517,7 +2517,7 @@
         <v>33600</v>
       </c>
       <c r="E51">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>89</v>
@@ -2541,7 +2541,7 @@
         <v>34200</v>
       </c>
       <c r="E52">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>89</v>
@@ -2565,7 +2565,7 @@
         <v>34800</v>
       </c>
       <c r="E53">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>89</v>
@@ -2589,7 +2589,7 @@
         <v>35400</v>
       </c>
       <c r="E54">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>89</v>

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1413,7 +1413,7 @@
         <v>6000</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>89</v>
@@ -1437,7 +1437,7 @@
         <v>6600</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>89</v>
@@ -1461,7 +1461,7 @@
         <v>7200</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>89</v>
@@ -1485,7 +1485,7 @@
         <v>7800</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>89</v>
@@ -1509,7 +1509,7 @@
         <v>8400</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>89</v>
@@ -1533,7 +1533,7 @@
         <v>9000</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>89</v>
@@ -1557,7 +1557,7 @@
         <v>9600</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
@@ -1581,7 +1581,7 @@
         <v>10200</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>89</v>
@@ -1605,7 +1605,7 @@
         <v>10800</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>89</v>
@@ -1629,7 +1629,7 @@
         <v>11400</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>89</v>
@@ -1653,7 +1653,7 @@
         <v>12000</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>89</v>
@@ -1677,7 +1677,7 @@
         <v>12600</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>89</v>
@@ -1701,7 +1701,7 @@
         <v>13200</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>89</v>
@@ -1725,7 +1725,7 @@
         <v>13800</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>89</v>
@@ -1749,7 +1749,7 @@
         <v>14400</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>89</v>
@@ -1773,7 +1773,7 @@
         <v>15000</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>89</v>
@@ -1797,7 +1797,7 @@
         <v>15600</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>89</v>
@@ -1821,7 +1821,7 @@
         <v>16200</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>89</v>
@@ -1845,7 +1845,7 @@
         <v>16800</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>89</v>
@@ -1869,7 +1869,7 @@
         <v>17400</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>89</v>
@@ -1893,7 +1893,7 @@
         <v>18000</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>89</v>
@@ -1917,7 +1917,7 @@
         <v>18600</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>89</v>
@@ -1941,7 +1941,7 @@
         <v>19200</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>89</v>
@@ -1965,7 +1965,7 @@
         <v>19800</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>89</v>
@@ -1989,7 +1989,7 @@
         <v>20400</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>89</v>
@@ -2013,7 +2013,7 @@
         <v>21000</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>89</v>
@@ -2037,7 +2037,7 @@
         <v>21600</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>89</v>
@@ -2061,7 +2061,7 @@
         <v>22200</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>89</v>
@@ -2085,7 +2085,7 @@
         <v>22800</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>89</v>
@@ -2109,7 +2109,7 @@
         <v>23400</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>89</v>
@@ -2133,7 +2133,7 @@
         <v>24000</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>89</v>
@@ -2157,7 +2157,7 @@
         <v>24600</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>89</v>
@@ -2181,7 +2181,7 @@
         <v>25200</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>89</v>
@@ -2205,7 +2205,7 @@
         <v>25800</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>89</v>
@@ -2229,7 +2229,7 @@
         <v>26400</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>89</v>
@@ -2253,7 +2253,7 @@
         <v>27000</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>89</v>
@@ -2277,7 +2277,7 @@
         <v>27600</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>89</v>
@@ -2301,7 +2301,7 @@
         <v>28200</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>89</v>
@@ -2325,7 +2325,7 @@
         <v>28800</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>89</v>
@@ -2349,7 +2349,7 @@
         <v>29400</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>89</v>
@@ -2373,7 +2373,7 @@
         <v>30000</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>89</v>
@@ -2397,7 +2397,7 @@
         <v>30600</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>89</v>
@@ -2421,7 +2421,7 @@
         <v>31200</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>89</v>
@@ -2445,7 +2445,7 @@
         <v>31800</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>89</v>
@@ -2469,7 +2469,7 @@
         <v>32400</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>89</v>
@@ -2493,7 +2493,7 @@
         <v>33000</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>89</v>
@@ -2517,7 +2517,7 @@
         <v>33600</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>89</v>
@@ -2541,7 +2541,7 @@
         <v>34200</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>89</v>
@@ -2565,7 +2565,7 @@
         <v>34800</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>89</v>
@@ -2589,7 +2589,7 @@
         <v>35400</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>89</v>

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -1302,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E53" sqref="E53:E54"/>
     </sheetView>
   </sheetViews>
@@ -1413,7 +1413,7 @@
         <v>6000</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>89</v>
@@ -1437,7 +1437,7 @@
         <v>6600</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>89</v>
@@ -1461,7 +1461,7 @@
         <v>7200</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>89</v>
@@ -1485,7 +1485,7 @@
         <v>7800</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>89</v>
@@ -1509,7 +1509,7 @@
         <v>8400</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>89</v>
@@ -1533,7 +1533,7 @@
         <v>9000</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>89</v>
@@ -1557,7 +1557,7 @@
         <v>9600</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>89</v>
@@ -1581,7 +1581,7 @@
         <v>10200</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>89</v>
@@ -1605,7 +1605,7 @@
         <v>10800</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>89</v>
@@ -1629,7 +1629,7 @@
         <v>11400</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>89</v>
@@ -1653,7 +1653,7 @@
         <v>12000</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>89</v>
@@ -1677,7 +1677,7 @@
         <v>12600</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>89</v>
@@ -1701,7 +1701,7 @@
         <v>13200</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>89</v>
@@ -1725,7 +1725,7 @@
         <v>13800</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>89</v>
@@ -1749,7 +1749,7 @@
         <v>14400</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>89</v>
@@ -1773,7 +1773,7 @@
         <v>15000</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>89</v>
@@ -1797,7 +1797,7 @@
         <v>15600</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>89</v>
@@ -1821,7 +1821,7 @@
         <v>16200</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>89</v>
@@ -1845,7 +1845,7 @@
         <v>16800</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>89</v>
@@ -1869,7 +1869,7 @@
         <v>17400</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>89</v>
@@ -1893,7 +1893,7 @@
         <v>18000</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>89</v>
@@ -1917,7 +1917,7 @@
         <v>18600</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>89</v>
@@ -1941,7 +1941,7 @@
         <v>19200</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>89</v>
@@ -1965,7 +1965,7 @@
         <v>19800</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>89</v>
@@ -1989,7 +1989,7 @@
         <v>20400</v>
       </c>
       <c r="E29">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>89</v>
@@ -2013,7 +2013,7 @@
         <v>21000</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>89</v>
@@ -2037,7 +2037,7 @@
         <v>21600</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>89</v>
@@ -2061,7 +2061,7 @@
         <v>22200</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>89</v>
@@ -2085,7 +2085,7 @@
         <v>22800</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>89</v>
@@ -2109,7 +2109,7 @@
         <v>23400</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>89</v>
@@ -2133,7 +2133,7 @@
         <v>24000</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>89</v>
@@ -2157,7 +2157,7 @@
         <v>24600</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>89</v>
@@ -2181,7 +2181,7 @@
         <v>25200</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>89</v>
@@ -2205,7 +2205,7 @@
         <v>25800</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>89</v>
@@ -2229,7 +2229,7 @@
         <v>26400</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>89</v>
@@ -2253,7 +2253,7 @@
         <v>27000</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>89</v>
@@ -2277,7 +2277,7 @@
         <v>27600</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>89</v>
@@ -2301,7 +2301,7 @@
         <v>28200</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>89</v>
@@ -2325,7 +2325,7 @@
         <v>28800</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>89</v>
@@ -2349,7 +2349,7 @@
         <v>29400</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>89</v>
@@ -2373,7 +2373,7 @@
         <v>30000</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>89</v>
@@ -2397,7 +2397,7 @@
         <v>30600</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>89</v>
@@ -2421,7 +2421,7 @@
         <v>31200</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>89</v>
@@ -2445,7 +2445,7 @@
         <v>31800</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>89</v>
@@ -2469,7 +2469,7 @@
         <v>32400</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>89</v>
@@ -2493,7 +2493,7 @@
         <v>33000</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>89</v>
@@ -2517,7 +2517,7 @@
         <v>33600</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>89</v>
@@ -2541,7 +2541,7 @@
         <v>34200</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>89</v>
@@ -2565,7 +2565,7 @@
         <v>34800</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>89</v>
@@ -2589,7 +2589,7 @@
         <v>35400</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>3600</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>89</v>

--- a/docs/excel/TLevelMaid.xlsx
+++ b/docs/excel/TLevelMaid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -107,764 +107,776 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要道具数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要道具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出额外道具(道具id-万分比权重;道具id-万分比权重)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>120001-1000-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120002-500-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120003-300-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120004-1500-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>120005-1000-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeBackCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgradenum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级需要道具数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级需要道具ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>70</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>4000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>6000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>8000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>9000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>4000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出额外道具(道具id-万分比权重;道具id-万分比权重)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProduceItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>120001-1000-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>120002-500-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>120003-300-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>120004-1500-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>120005-1000-1</t>
-    </r>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领回消耗金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:E54"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1326,7 @@
     <col min="5" max="5" width="22.69921875" customWidth="1"/>
     <col min="6" max="6" width="55.69921875" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1322,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>24</v>
@@ -1334,10 +1346,13 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1351,16 +1366,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -1371,7 +1389,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -1380,10 +1398,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>22</v>
@@ -1392,10 +1410,13 @@
         <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1403,23 +1424,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <f>INT(H5+6000)</f>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="E5">
         <v>3600</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1427,23 +1451,26 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D11" si="0">INT(D5+600)</f>
-        <v>6600</v>
+        <v>7600</v>
       </c>
       <c r="E6">
         <v>3600</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6">
         <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1451,23 +1478,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>8200</v>
       </c>
       <c r="E7">
         <v>3600</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1475,23 +1505,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="E8">
         <v>3600</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8">
         <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1499,23 +1532,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>9400</v>
       </c>
       <c r="E9">
         <v>3600</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>6</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1523,23 +1559,26 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="E10">
         <v>3600</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10">
         <v>7</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1547,23 +1586,26 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="E11">
         <v>3600</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11">
         <v>8</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1571,23 +1613,26 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D54" si="1">INT(D11+600)</f>
-        <v>10200</v>
+        <v>11200</v>
       </c>
       <c r="E12">
         <v>3600</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12">
         <v>9</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1595,23 +1640,26 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="E13">
         <v>3600</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13">
         <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1619,23 +1667,26 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>11400</v>
+        <v>12400</v>
       </c>
       <c r="E14">
         <v>3600</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14">
         <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1643,23 +1694,26 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="E15">
         <v>3600</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15">
         <v>12</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1667,965 +1721,1082 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>12600</v>
+        <v>13600</v>
       </c>
       <c r="E16">
         <v>3600</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>13200</v>
+        <v>14200</v>
       </c>
       <c r="E17">
         <v>3600</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="E18">
         <v>3600</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="E19">
         <v>3600</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="E20">
         <v>3600</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>16600</v>
       </c>
       <c r="E21">
         <v>3600</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>16200</v>
+        <v>17200</v>
       </c>
       <c r="E22">
         <v>3600</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>16800</v>
+        <v>17800</v>
       </c>
       <c r="E23">
         <v>3600</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>17400</v>
+        <v>18400</v>
       </c>
       <c r="E24">
         <v>3600</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="E25">
         <v>3600</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>18600</v>
+        <v>19600</v>
       </c>
       <c r="E26">
         <v>3600</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>19200</v>
+        <v>20200</v>
       </c>
       <c r="E27">
         <v>3600</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>19800</v>
+        <v>20800</v>
       </c>
       <c r="E28">
         <v>3600</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>20400</v>
+        <v>21400</v>
       </c>
       <c r="E29">
         <v>3600</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="E30">
         <v>3600</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>21600</v>
+        <v>22600</v>
       </c>
       <c r="E31">
         <v>3600</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>22200</v>
+        <v>23200</v>
       </c>
       <c r="E32">
         <v>3600</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>22800</v>
+        <v>23800</v>
       </c>
       <c r="E33">
         <v>3600</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>23400</v>
+        <v>24400</v>
       </c>
       <c r="E34">
         <v>3600</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="E35">
         <v>3600</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>24600</v>
+        <v>25600</v>
       </c>
       <c r="E36">
         <v>3600</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>25200</v>
+        <v>26200</v>
       </c>
       <c r="E37">
         <v>3600</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="E38">
         <v>3600</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="E39">
         <v>3600</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="E40">
         <v>3600</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>27600</v>
+        <v>28600</v>
       </c>
       <c r="E41">
         <v>3600</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="E42">
         <v>3600</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>28800</v>
+        <v>29800</v>
       </c>
       <c r="E43">
         <v>3600</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>29400</v>
+        <v>30400</v>
       </c>
       <c r="E44">
         <v>3600</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="E45">
         <v>3600</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>30600</v>
+        <v>31600</v>
       </c>
       <c r="E46">
         <v>3600</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="E47">
         <v>3600</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="E48">
         <v>3600</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="E49">
         <v>3600</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="E50">
         <v>3600</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>33600</v>
+        <v>34600</v>
       </c>
       <c r="E51">
         <v>3600</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>34200</v>
+        <v>35200</v>
       </c>
       <c r="E52">
         <v>3600</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>34800</v>
+        <v>35800</v>
       </c>
       <c r="E53">
         <v>3600</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>35400</v>
+        <v>36400</v>
       </c>
       <c r="E54">
         <v>3600</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
